--- a/2024_Informacoes_centralizadas.v01.xlsx
+++ b/2024_Informacoes_centralizadas.v01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena.CSFDIGITAL\Documents\Teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D10FFC5-6FD5-4D5A-B067-40CD30A89E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF34796-C9D1-4C51-BDA8-42B16855B2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F776DDA-217A-4C6D-9E43-B79A5CEAF850}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="49">
   <si>
     <t>SETOR</t>
   </si>
@@ -75,109 +75,112 @@
     <t>Filial1</t>
   </si>
   <si>
-    <t>AnaSilva</t>
-  </si>
-  <si>
-    <t>BrunoOliveira</t>
-  </si>
-  <si>
     <t>TécnicoResidente</t>
   </si>
   <si>
-    <t>CarlaSantos</t>
-  </si>
-  <si>
-    <t>DiegoAlmeida</t>
-  </si>
-  <si>
-    <t>EvaCosta</t>
-  </si>
-  <si>
-    <t>FernandoPereira</t>
-  </si>
-  <si>
-    <t>GabrielaLima</t>
-  </si>
-  <si>
-    <t>HenriqueMartins</t>
-  </si>
-  <si>
-    <t>IsabelaRocha</t>
-  </si>
-  <si>
-    <t>JoãoMendes</t>
-  </si>
-  <si>
-    <t>KarlaFerreira</t>
-  </si>
-  <si>
-    <t>LeonardoCruz</t>
-  </si>
-  <si>
-    <t>MarianaOliveira</t>
-  </si>
-  <si>
-    <t>NelsonCosta</t>
-  </si>
-  <si>
-    <t>OliviaMartins</t>
-  </si>
-  <si>
-    <t>PauloSantos</t>
-  </si>
-  <si>
-    <t>QuésiaLima</t>
-  </si>
-  <si>
-    <t>RafaelAlmeida</t>
-  </si>
-  <si>
-    <t>SabrinaRocha</t>
-  </si>
-  <si>
-    <t>TiagoFerreira</t>
-  </si>
-  <si>
     <t>Filial2</t>
   </si>
   <si>
-    <t>UrsulaCosta</t>
-  </si>
-  <si>
-    <t>VítorSouza</t>
-  </si>
-  <si>
-    <t>WendyOliveira</t>
-  </si>
-  <si>
-    <t>XavierLima</t>
-  </si>
-  <si>
-    <t>YaraRocha</t>
-  </si>
-  <si>
-    <t>ZéPereira</t>
-  </si>
-  <si>
-    <t>FranciscoAlberto</t>
-  </si>
-  <si>
-    <t>FranciscoGlauber</t>
-  </si>
-  <si>
-    <t>GeorgeCarvalho</t>
-  </si>
-  <si>
-    <t>GrazieleSilva</t>
-  </si>
-  <si>
-    <t>HelioAntonioAlves</t>
-  </si>
-  <si>
     <t>DDD / LINHA</t>
   </si>
   <si>
     <t>Inara Brenda</t>
+  </si>
+  <si>
+    <t>Ana Silva</t>
+  </si>
+  <si>
+    <t>Bruno Oliveira</t>
+  </si>
+  <si>
+    <t>Carla Santos</t>
+  </si>
+  <si>
+    <t>Diego Almeida</t>
+  </si>
+  <si>
+    <t>Eva Costa</t>
+  </si>
+  <si>
+    <t>Fernando Pereira</t>
+  </si>
+  <si>
+    <t>Técnico Residente</t>
+  </si>
+  <si>
+    <t>Gabriela Lima</t>
+  </si>
+  <si>
+    <t>Henrique Martins</t>
+  </si>
+  <si>
+    <t>Isabela Rocha</t>
+  </si>
+  <si>
+    <t>João Mendes</t>
+  </si>
+  <si>
+    <t>Karla Ferreira</t>
+  </si>
+  <si>
+    <t>Leonardo Cruz</t>
+  </si>
+  <si>
+    <t>Mariana Oliveira</t>
+  </si>
+  <si>
+    <t>Nelson Costa</t>
+  </si>
+  <si>
+    <t>Olivia Martins</t>
+  </si>
+  <si>
+    <t>Paulo Santos</t>
+  </si>
+  <si>
+    <t>Quésia Lima</t>
+  </si>
+  <si>
+    <t>Rafael Almeida</t>
+  </si>
+  <si>
+    <t>Sabrina Rocha</t>
+  </si>
+  <si>
+    <t>Tiago Ferreira</t>
+  </si>
+  <si>
+    <t>Ursula Costa</t>
+  </si>
+  <si>
+    <t>Vítor Souza</t>
+  </si>
+  <si>
+    <t>Wendy Oliveira</t>
+  </si>
+  <si>
+    <t>Xavier Lima</t>
+  </si>
+  <si>
+    <t>Yara Rocha</t>
+  </si>
+  <si>
+    <t>Zé Pereira</t>
+  </si>
+  <si>
+    <t>Francisco Alberto</t>
+  </si>
+  <si>
+    <t>Francisco Glauber</t>
+  </si>
+  <si>
+    <t>Graziele Silva</t>
+  </si>
+  <si>
+    <t>George Souza</t>
+  </si>
+  <si>
+    <t>Helio Antonio Alves</t>
   </si>
 </sst>
 </file>
@@ -636,7 +639,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +662,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>10</v>
@@ -673,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" s="5">
         <v>11987654321</v>
@@ -690,7 +693,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5">
         <v>21976543210</v>
@@ -704,10 +707,10 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5">
         <v>31965432109</v>
@@ -724,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5">
         <v>41954321098</v>
@@ -741,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5">
         <v>51943210987</v>
@@ -758,7 +761,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5">
         <v>61932109876</v>
@@ -775,7 +778,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5">
         <v>71921098765</v>
@@ -792,7 +795,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5">
         <v>81910987654</v>
@@ -806,10 +809,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D10" s="5">
         <v>91909876543</v>
@@ -826,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D11" s="5">
         <v>11908765432</v>
@@ -843,7 +846,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D12" s="5">
         <v>21897654321</v>
@@ -860,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D13" s="5">
         <v>31876543210</v>
@@ -877,7 +880,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D14" s="5">
         <v>41865432109</v>
@@ -894,7 +897,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D15" s="5">
         <v>51854321098</v>
@@ -911,7 +914,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D16" s="5">
         <v>61843210987</v>
@@ -928,7 +931,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D17" s="5">
         <v>71832109876</v>
@@ -945,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D18" s="5">
         <v>81821098765</v>
@@ -960,7 +963,7 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D19" s="5">
         <v>91810987654</v>
@@ -977,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D20" s="5">
         <v>11809876543</v>
@@ -994,7 +997,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D21" s="5">
         <v>21798765432</v>
@@ -1005,13 +1008,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D22" s="5">
         <v>31787654321</v>
@@ -1022,13 +1025,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D23" s="5">
         <v>41776543210</v>
@@ -1039,13 +1042,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D24" s="5">
         <v>51765432109</v>
@@ -1056,13 +1059,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D25" s="5">
         <v>61754321098</v>
@@ -1073,13 +1076,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D26" s="5">
         <v>71743210987</v>
@@ -1090,13 +1093,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D27" s="5">
         <v>81732109876</v>
@@ -1107,13 +1110,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D28" s="5">
         <v>91721098765</v>
@@ -1124,13 +1127,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D29" s="5">
         <v>11710987654</v>
@@ -1141,13 +1144,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D30" s="5">
         <v>21709876543</v>
@@ -1158,13 +1161,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D31" s="5">
         <v>31698765432</v>
@@ -1175,13 +1178,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D32" s="5">
         <v>41687654321</v>
@@ -1192,13 +1195,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D33" s="5">
         <v>51676543210</v>
